--- a/DoAn_QuanLyShopThoiTrang/DoAn_QuanLyShopThoiTrang/bin/Debug/templateThongKe.xlsx
+++ b/DoAn_QuanLyShopThoiTrang/DoAn_QuanLyShopThoiTrang/bin/Debug/templateThongKe.xlsx
@@ -44,10 +44,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -109,10 +109,81 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -124,16 +195,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,108 +239,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,25 +262,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,115 +436,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,44 +446,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="29">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -519,32 +519,50 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right/>
@@ -555,64 +573,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -633,37 +596,22 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top/>
       <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -684,18 +632,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,6 +652,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -730,6 +678,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -745,15 +702,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -780,15 +728,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -798,130 +746,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -986,37 +934,37 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1371,7 +1319,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
-    <pageSetUpPr fitToPage="1" autoPageBreaks="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
